--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198049A4-B9D9-4545-8411-E9B0B605AA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1863A-D2A9-4CED-A6AB-CA9911A50C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="3756" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{9471E2BD-188A-406B-A67B-A3CE75D352AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9471E2BD-188A-406B-A67B-A3CE75D352AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目内容或需求</t>
+  </si>
+  <si>
+    <t>立项依据或支撑</t>
+  </si>
+  <si>
+    <t>项目服务组织范围</t>
+  </si>
+  <si>
+    <t>起始时间</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>是否纳入规划</t>
+  </si>
+  <si>
+    <t>项目计划总投资</t>
+  </si>
+  <si>
+    <t>投资主体</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>年末累计支付</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -301,9 +334,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>S</t>
@@ -903,6 +933,24 @@
       <t>深圳市招商创业有限公司</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下年预算投资-咨询费</t>
+  </si>
+  <si>
+    <t>下年预算投资-软件购置费</t>
+  </si>
+  <si>
+    <t>下年预算投资-硬件购置费</t>
+  </si>
+  <si>
+    <t>下年预算投资-实施开发费</t>
+  </si>
+  <si>
+    <t>下年预算投资-培训费</t>
+  </si>
+  <si>
+    <t>下年预算投资-其他</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5CC6DD-26C5-455D-94F3-9171B0B8CB00}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1342,16 +1390,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1378,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16580EB-41BC-4398-B970-AF61DB69B181}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1404,58 +1452,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,16 +1511,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4">
         <v>43262</v>
@@ -1484,10 +1532,10 @@
         <v>279.03580499999998</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L2" s="1">
         <v>158.40424999999999</v>
@@ -1501,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F3" s="4">
         <v>43644</v>
@@ -1522,10 +1570,10 @@
         <v>160</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -1545,40 +1593,33 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,10 +1649,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1663,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1696,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1707,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1740,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1751,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1773,10 +1814,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1784,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1795,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1853,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1823,13 +1864,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,15 +1889,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1863A-D2A9-4CED-A6AB-CA9911A50C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5677FA-BFA1-4E15-8677-BF4337D6A432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9471E2BD-188A-406B-A67B-A3CE75D352AB}"/>
   </bookViews>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InserBeforRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -363,10 +359,6 @@
   </si>
   <si>
     <t>SUM(O{row}:T{row})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件5A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -951,6 +943,14 @@
   </si>
   <si>
     <t>下年预算投资-其他</t>
+  </si>
+  <si>
+    <t>附件5A.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InserBeforeRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1399,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1419,6 +1419,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1426,9 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16580EB-41BC-4398-B970-AF61DB69B181}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1455,37 +1454,37 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1511,16 +1510,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F2" s="4">
         <v>43262</v>
@@ -1532,10 +1531,10 @@
         <v>279.03580499999998</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1">
         <v>158.40424999999999</v>
@@ -1549,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4">
         <v>43644</v>
@@ -1570,10 +1569,10 @@
         <v>160</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -1616,10 +1615,10 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1663,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1696,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1707,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1740,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1751,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,7 +1761,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1773,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,10 +1824,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1867,10 +1866,10 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1889,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5677FA-BFA1-4E15-8677-BF4337D6A432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E34DBEC-6385-4294-B594-1565014559FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9471E2BD-188A-406B-A67B-A3CE75D352AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9471E2BD-188A-406B-A67B-A3CE75D352AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -350,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -950,6 +946,10 @@
   </si>
   <si>
     <t>InserBeforeRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I{row}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5CC6DD-26C5-455D-94F3-9171B0B8CB00}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1399,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1454,37 +1454,37 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1510,16 +1510,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F2" s="4">
         <v>43262</v>
@@ -1531,10 +1531,10 @@
         <v>279.03580499999998</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="L2" s="1">
         <v>158.40424999999999</v>
@@ -1548,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4">
         <v>43644</v>
@@ -1569,10 +1569,10 @@
         <v>160</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9FE129-99B4-4F8E-91AE-521CCF32D1C1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
